--- a/System development files/Product Backlog.xlsx
+++ b/System development files/Product Backlog.xlsx
@@ -10,11 +10,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Sprint</t>
   </si>
@@ -91,30 +92,18 @@
     <t>Database architecture</t>
   </si>
   <si>
-    <t>Sprint 1  Finish system development requirements</t>
-  </si>
-  <si>
     <t>Model layer</t>
   </si>
   <si>
     <t>Database layer</t>
   </si>
   <si>
-    <t>Exception classes</t>
-  </si>
-  <si>
     <t>Control layer</t>
   </si>
   <si>
     <t>GUI layer</t>
   </si>
   <si>
-    <t>Junit tests</t>
-  </si>
-  <si>
-    <t>Sprint 2 Minimal working version</t>
-  </si>
-  <si>
     <t>Release 1    Testing version</t>
   </si>
   <si>
@@ -136,15 +125,9 @@
     <t>Implementing new small features</t>
   </si>
   <si>
-    <t>Sprint 3 Correcting mistakes and adding new small features</t>
-  </si>
-  <si>
     <t>Effort in the whole backlog</t>
   </si>
   <si>
-    <t>Velocity</t>
-  </si>
-  <si>
     <t>Burndown chart</t>
   </si>
   <si>
@@ -152,13 +135,28 @@
   </si>
   <si>
     <t>Time left</t>
+  </si>
+  <si>
+    <t>Inception phase</t>
+  </si>
+  <si>
+    <t>Elaboration phase</t>
+  </si>
+  <si>
+    <t>Construction phase</t>
+  </si>
+  <si>
+    <t>Junit tests and Use case tests</t>
+  </si>
+  <si>
+    <t>Exception layer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,19 +168,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFC000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -216,7 +201,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -342,50 +327,168 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -397,7 +500,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -431,7 +552,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -444,7 +565,7 @@
             <c:v>Actual time</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -455,79 +576,59 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet2!$C$2:$E$2</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>#1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>#2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>#3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
-            <c:numRef>
-              <c:f>(Sheet2!$F$4,Sheet2!$F$8,Sheet2!$F$11,Sheet2!$F$12,Sheet2!$F$13,Sheet2!$F$16,Sheet2!$F$19,Sheet2!$F$20,Sheet2!$F$21,Sheet2!$F$23,Sheet2!$F$26,Sheet2!$F$27,Sheet2!$F$28,Sheet2!$F$31,Sheet2!$F$36,Sheet2!$F$37)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="16"/>
+              <c:pt idx="0">
+                <c:v>40</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>39</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>38</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>35</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>30</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>28</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>27</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>20</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>17</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>14</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>13</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>11</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>10</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>0</c:v>
+              </c:pt>
+            </c:numLit>
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
@@ -538,7 +639,7 @@
             <c:v>Time left</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -550,61 +651,55 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:val>
-            <c:numRef>
-              <c:f>(Sheet2!$G$4,Sheet2!$G$8,Sheet2!$G$11,Sheet2!$G$12,Sheet2!$G$13,Sheet2!$G$16,Sheet2!$G$19,Sheet2!$G$20,Sheet2!$G$21,Sheet2!$G$23,Sheet2!$G$26,Sheet2!$G$27,Sheet2!$G$28,Sheet2!$G$31,Sheet2!$G$36,Sheet2!$G$37)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="15"/>
+              <c:pt idx="0">
+                <c:v>39</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>39</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>39</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>30</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>28</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>27</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>23</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>17</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>14</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>15</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>11</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>11</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>0</c:v>
+              </c:pt>
+            </c:numLit>
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
@@ -617,11 +712,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="283773712"/>
-        <c:axId val="2064723152"/>
+        <c:axId val="280442352"/>
+        <c:axId val="280447792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="283773712"/>
+        <c:axId val="280442352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -636,8 +731,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -664,7 +759,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2064723152"/>
+        <c:crossAx val="280447792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -672,7 +767,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2064723152"/>
+        <c:axId val="280447792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -729,14 +824,8 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -760,7 +849,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="283773712"/>
+        <c:crossAx val="280442352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -882,7 +971,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -909,8 +998,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -990,6 +1079,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -1000,6 +1094,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -1011,7 +1110,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1031,6 +1130,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1043,10 +1145,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1086,23 +1188,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1207,8 +1308,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1340,20 +1441,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1367,17 +1467,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -1403,13 +1492,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>47624</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>42862</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>19049</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>119062</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1721,8 +1810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:O3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1730,122 +1819,117 @@
     <col min="2" max="2" width="73.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="3"/>
-      <c r="C1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>45</v>
+      <c r="C1" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="34"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
     </row>
     <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="12" t="s">
+      <c r="A3" s="18"/>
+      <c r="B3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="12">
-        <f>SUM(C37,C36,C31:C33,C23:C28,C4:C21)</f>
-        <v>126</v>
-      </c>
-      <c r="D3" s="12">
-        <f>SUM(D4:D21,D23:D28,D31:D33,D36:D37)</f>
-        <v>108</v>
-      </c>
-      <c r="E3" s="1">
-        <f>SUM(E4:E21,E23:E28,E31:E33,E36:E37)</f>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+    </row>
+    <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C5" s="12">
         <v>2</v>
       </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="19">
+      <c r="D5" s="12">
+        <v>0</v>
+      </c>
+      <c r="E5" s="13">
+        <v>0</v>
+      </c>
+      <c r="F5" s="26">
         <v>40</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G5" s="26">
         <v>39</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1">
         <v>2</v>
@@ -1853,30 +1937,34 @@
       <c r="D6" s="1">
         <v>0</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>19</v>
@@ -1884,137 +1972,135 @@
       <c r="C8" s="1">
         <v>1</v>
       </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="19">
-        <v>39</v>
-      </c>
-      <c r="G8" s="19">
-        <v>39</v>
-      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="1">
-        <v>2</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
+      <c r="A9" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C10" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+      <c r="F10" s="26">
+        <v>39</v>
+      </c>
+      <c r="G10" s="26">
+        <v>39</v>
+      </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C11" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="6">
-        <v>38</v>
-      </c>
-      <c r="G11" s="6">
-        <v>39</v>
-      </c>
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="6">
-        <v>35</v>
-      </c>
-      <c r="G12" s="6">
-        <v>30</v>
-      </c>
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C13" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="19">
-        <v>30</v>
-      </c>
-      <c r="G13" s="19">
-        <v>28</v>
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
+      <c r="F13" s="5">
+        <v>38</v>
+      </c>
+      <c r="G13" s="5">
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C14" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
+      <c r="E14" s="4">
+        <v>0</v>
+      </c>
+      <c r="F14" s="5">
+        <v>35</v>
+      </c>
+      <c r="G14" s="5">
+        <v>30</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" s="1">
         <v>5</v>
@@ -2022,54 +2108,60 @@
       <c r="D15" s="1">
         <v>0</v>
       </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
+      <c r="E15" s="4">
+        <v>0</v>
+      </c>
+      <c r="F15" s="26">
+        <v>30</v>
+      </c>
+      <c r="G15" s="26">
+        <v>28</v>
+      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
       </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="19">
-        <v>28</v>
-      </c>
-      <c r="G16" s="19">
-        <v>27</v>
-      </c>
+      <c r="E16" s="4">
+        <v>0</v>
+      </c>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
+        <v>12</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C17" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D17" s="1">
         <v>0</v>
       </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
+      <c r="E17" s="4">
+        <v>0</v>
+      </c>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C18" s="1">
         <v>6</v>
@@ -2077,327 +2169,367 @@
       <c r="D18" s="1">
         <v>0</v>
       </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
+      <c r="E18" s="4">
+        <v>0</v>
+      </c>
+      <c r="F18" s="26">
+        <v>28</v>
+      </c>
+      <c r="G18" s="26">
+        <v>27</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C19" s="1">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D19" s="1">
-        <v>5</v>
-      </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="6">
-        <v>27</v>
-      </c>
-      <c r="G19" s="6">
-        <v>23</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0</v>
+      </c>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C20" s="1">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D20" s="1">
-        <v>5</v>
-      </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="6">
-        <v>20</v>
-      </c>
-      <c r="G20" s="6">
-        <v>17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0</v>
+      </c>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="C21" s="1">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D21" s="1">
         <v>5</v>
       </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="6">
+      <c r="E21" s="4">
+        <v>0</v>
+      </c>
+      <c r="F21" s="5">
+        <v>27</v>
+      </c>
+      <c r="G21" s="5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>17</v>
       </c>
-      <c r="G21" s="6">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="6"/>
+      <c r="B22" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1">
+        <v>5</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0</v>
+      </c>
+      <c r="F22" s="5">
+        <v>20</v>
+      </c>
+      <c r="G22" s="5">
+        <v>17</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>19</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="1">
-        <v>0</v>
-      </c>
-      <c r="D23" s="1">
-        <v>10</v>
-      </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="19">
-        <v>14</v>
-      </c>
-      <c r="G23" s="19">
-        <v>15</v>
-      </c>
+      <c r="A23" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
+        <v>18</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="1">
         <v>20</v>
       </c>
-      <c r="B24" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="1">
-        <v>0</v>
-      </c>
       <c r="D24" s="1">
-        <v>20</v>
-      </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
+        <v>5</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0</v>
+      </c>
+      <c r="F24" s="5">
+        <v>17</v>
+      </c>
+      <c r="G24" s="5">
+        <v>15</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>21</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="C25" s="1">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D25" s="1">
-        <v>3</v>
-      </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
+        <v>5</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0</v>
+      </c>
+      <c r="F25" s="5">
+        <v>14</v>
+      </c>
+      <c r="G25" s="5">
+        <v>14</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>22</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>29</v>
+        <v>20</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="C26" s="1">
         <v>0</v>
       </c>
       <c r="D26" s="1">
-        <v>25</v>
-      </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="6">
+        <v>10</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0</v>
+      </c>
+      <c r="F26" s="26">
         <v>13</v>
       </c>
-      <c r="G26" s="6">
-        <v>11</v>
+      <c r="G26" s="26">
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>23</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>30</v>
+        <v>21</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="C27" s="1">
         <v>0</v>
       </c>
       <c r="D27" s="1">
-        <v>30</v>
-      </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="6">
-        <v>11</v>
-      </c>
-      <c r="G27" s="6">
-        <v>11</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0</v>
+      </c>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1">
+        <v>3</v>
+      </c>
+      <c r="E28" s="4">
+        <v>0</v>
+      </c>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1">
+        <v>25</v>
+      </c>
+      <c r="E29" s="4">
+        <v>0</v>
+      </c>
+      <c r="F29" s="5">
+        <v>11</v>
+      </c>
+      <c r="G29" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>24</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B30" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1">
+        <v>30</v>
+      </c>
+      <c r="E30" s="4">
+        <v>0</v>
+      </c>
+      <c r="F30" s="5">
+        <v>10</v>
+      </c>
+      <c r="G30" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="7">
+        <v>25</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="1">
+        <v>5</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0</v>
+      </c>
+      <c r="E32" s="4">
+        <v>0</v>
+      </c>
+      <c r="F32" s="26">
+        <v>9</v>
+      </c>
+      <c r="G32" s="26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="7">
+        <v>26</v>
+      </c>
+      <c r="B33" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="1">
-        <v>0</v>
-      </c>
-      <c r="D28" s="1">
+      <c r="C33" s="1">
         <v>5</v>
       </c>
-      <c r="E28" s="5"/>
-      <c r="F28" s="6">
-        <v>10</v>
-      </c>
-      <c r="G28" s="6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
+      <c r="D33" s="1">
+        <v>0</v>
+      </c>
+      <c r="E33" s="4">
+        <v>0</v>
+      </c>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="7">
+        <v>27</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="1">
+        <v>5</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0</v>
+      </c>
+      <c r="E34" s="4">
+        <v>0</v>
+      </c>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="13">
-        <v>25</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="1">
-        <v>0</v>
-      </c>
-      <c r="D31" s="1">
-        <v>0</v>
-      </c>
-      <c r="E31" s="5">
-        <v>5</v>
-      </c>
-      <c r="F31" s="19">
-        <v>9</v>
-      </c>
-      <c r="G31" s="19">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="13">
-        <v>26</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" s="1">
-        <v>0</v>
-      </c>
-      <c r="D32" s="1">
-        <v>0</v>
-      </c>
-      <c r="E32" s="5">
-        <v>5</v>
-      </c>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="13">
-        <v>27</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C33" s="1">
-        <v>0</v>
-      </c>
-      <c r="D33" s="1">
-        <v>0</v>
-      </c>
-      <c r="E33" s="5">
-        <v>10</v>
-      </c>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="6"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
       <c r="F35" s="1"/>
-      <c r="G35" s="6"/>
+      <c r="G35" s="5"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>28</v>
       </c>
-      <c r="B36" s="13" t="s">
-        <v>37</v>
+      <c r="B36" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="C36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36" s="1">
         <v>0</v>
       </c>
-      <c r="E36" s="5">
-        <v>5</v>
-      </c>
-      <c r="F36" s="6">
+      <c r="E36" s="4">
+        <v>0</v>
+      </c>
+      <c r="F36" s="5">
         <v>7</v>
       </c>
-      <c r="G36" s="6">
+      <c r="G36" s="5">
         <v>5</v>
       </c>
     </row>
@@ -2405,83 +2537,72 @@
       <c r="A37" s="1">
         <v>29</v>
       </c>
-      <c r="B37" s="13" t="s">
-        <v>38</v>
+      <c r="B37" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="C37" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D37" s="1">
         <v>0</v>
       </c>
-      <c r="E37" s="5">
-        <v>15</v>
-      </c>
-      <c r="F37" s="6">
-        <v>0</v>
-      </c>
-      <c r="G37" s="6">
+      <c r="E37" s="4">
+        <v>0</v>
+      </c>
+      <c r="F37" s="5">
+        <v>0</v>
+      </c>
+      <c r="G37" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B38" s="16" t="s">
-        <v>41</v>
+      <c r="B38" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="C38" s="1">
-        <f>SUM(C37,C36,C31:C33,C23:C28,C4:C21)</f>
-        <v>126</v>
+        <f>SUM(C37,C36,C34,C33,C32,C24:C30,C10:C22,C8,C7,C6,C5)</f>
+        <v>144</v>
       </c>
       <c r="D38" s="1">
-        <f>SUM(D4:D21,D23:D28,D31:D33,D36:D37)</f>
+        <f>SUM(D37,D36,D34,D33,D32,D24:D30,D10:D22,D8,D7,D6,D5)</f>
         <v>108</v>
       </c>
-      <c r="E38" s="5">
-        <f>SUM(E4:E21,E23:E28,E31:E33,E36:E37)</f>
-        <v>40</v>
-      </c>
+      <c r="E38" s="4"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C39" s="1">
-        <v>39</v>
-      </c>
-      <c r="D39" s="1">
-        <v>36</v>
-      </c>
-      <c r="E39" s="5">
-        <v>34</v>
-      </c>
+      <c r="B39" s="9"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="4"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="F32:F34"/>
+    <mergeCell ref="G32:G34"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A23:E23"/>
     <mergeCell ref="H2:O3"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="F31:F33"/>
-    <mergeCell ref="G31:G33"/>
-    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="G18:G20"/>
     <mergeCell ref="F1:F3"/>
     <mergeCell ref="G1:G3"/>
-    <mergeCell ref="F4:F7"/>
-    <mergeCell ref="G4:G7"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="F5:F9"/>
+    <mergeCell ref="G5:G9"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="G15:G17"/>
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="A34:E34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
